--- a/Assets/Plugins/ExcelImporter/Example/Excels/小鬼当家配置表.xlsx
+++ b/Assets/Plugins/ExcelImporter/Example/Excels/小鬼当家配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7600" activeTab="8"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="陷阱" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="306">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +77,9 @@
     <t>示意图</t>
   </si>
   <si>
+    <t>icon&amp;</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -89,7 +92,7 @@
     <t>主动触发</t>
   </si>
   <si>
-    <t>由玩家击打触发</t>
+    <t>玩家主动触发</t>
   </si>
   <si>
     <t>飞向玩家所面对的方向。玩家手中的手持道具击打系数越高，伤害越高</t>
@@ -98,6 +101,9 @@
     <t>image.png</t>
   </si>
   <si>
+    <t>icon/trap/bucket_hammer_1</t>
+  </si>
+  <si>
     <t>T002</t>
   </si>
   <si>
@@ -107,54 +113,66 @@
     <t>被动触发</t>
   </si>
   <si>
-    <t>敌人移动到绊线位置时触发</t>
+    <t>通过触媒触发</t>
   </si>
   <si>
     <t>飞向敌人的位置，扣除敌人五点精神值</t>
   </si>
   <si>
+    <t>icon/trap/bucket_hammer_2</t>
+  </si>
+  <si>
     <t>T003</t>
   </si>
   <si>
     <t>电池发热装置</t>
   </si>
   <si>
+    <t>定时|被动</t>
+  </si>
+  <si>
+    <t>一端时间后，敌人与陷阱附着的家具互动触发</t>
+  </si>
+  <si>
+    <t>陷阱被放置在家具上后，需要10s生效。持续【电量/5】s。，扣除敌人3点精神值。并在之后被分解。</t>
+  </si>
+  <si>
+    <t>icon/trap/battery_heater</t>
+  </si>
+  <si>
+    <t>持续时间 = {电池当前电量/5}</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>泡泡喷发装置</t>
+  </si>
+  <si>
     <t>混合</t>
   </si>
   <si>
-    <t>在敌人与陷阱附着的家具互动时触发</t>
-  </si>
-  <si>
-    <t>陷阱被放置在家具上后，需要10s生效。持续【电量/5】s。，扣除敌人3点精神值。并在之后被分解。</t>
-  </si>
-  <si>
-    <t>持续时间 = {电池当前电量/5}</t>
-  </si>
-  <si>
-    <t>T004</t>
-  </si>
-  <si>
-    <t>泡泡喷发装置</t>
-  </si>
-  <si>
-    <t>在玩家与家具互动时触发</t>
+    <t>一段时间后，玩家与陷阱附着的家具互动触发</t>
   </si>
   <si>
     <t>陷阱被放置到家具上之后，需要30s生效。扣除敌人2点精神值并使其致盲。使陷阱覆盖范围的地板变成【泡泡地板】</t>
   </si>
   <si>
+    <t>icon/trap/bubble_blaster</t>
+  </si>
+  <si>
     <t>T005</t>
   </si>
   <si>
     <t>电动小车</t>
   </si>
   <si>
-    <t>被放置后，由玩家与其互动触发</t>
-  </si>
-  <si>
     <t>向着车头的方向前进，撞到敌人之后会使其跌倒，前进的距离由电池的电量决定，撞到墙了陷阱也会停下，同时发出较大的声音</t>
   </si>
   <si>
+    <t>icon/trap/toycar_bullet</t>
+  </si>
+  <si>
     <t>持续时间 = {电池当前电量/10}</t>
   </si>
   <si>
@@ -164,10 +182,10 @@
     <t>人体弹弓</t>
   </si>
   <si>
-    <t>敌人移动到陷阱上时触发</t>
-  </si>
-  <si>
-    <t>当敌人靠近陷阱时会被粘住，随后会被粘在秋千上。若玩家不在敌人附近，敌人将花费10s解除陷阱。若玩家靠近敌人，敌人会被吸引，并在往玩家方向移动一定距离之后，做往复运动。3次往复运动后会被抛飞至一定距离。若落点处没有其他陷阱，敌人会被扣除三点经验值。随后进入眼冒金星状态。</t>
+    <t>当敌人靠近陷阱时会被粘住，随后会被粘在秋千上。若玩家不在敌人附近，敌人将花费10s解除陷阱。若玩家靠近敌人，敌人会被吸引，并在往玩家方向移动一定距离之后，做往复运动。3次往复运动后会被抛飞至一定距离。若落点处没有其他陷阱，敌人会被扣除三点精神值。随后进入眼冒金星状态。</t>
+  </si>
+  <si>
+    <t>icon/trap/mankind_swinger</t>
   </si>
   <si>
     <t>T007</t>
@@ -176,22 +194,25 @@
     <t>木马头槌</t>
   </si>
   <si>
-    <t>玩家与陷阱互动后，通过取消互动触发</t>
-  </si>
-  <si>
     <t>当玩家与陷阱互动之后，会抱住木马，此时玩家可以拖动木马往后挪动至多两格的距离（越往后移动速度越慢）。随后按下互动键释放木马，木马会回弹，对移动方向上的敌人造成伤害。蓄力的距离越长，回弹的距离越长，伤害越高。若没有击中敌人，则会再次回弹，如果击中玩家，玩家将眩晕1s</t>
   </si>
   <si>
+    <t>icon/trap/horse_fist</t>
+  </si>
+  <si>
     <t>T008</t>
   </si>
   <si>
     <t>火山毒蛇</t>
   </si>
   <si>
-    <t>玩家在折叠小凳上按下冲刺键触发</t>
-  </si>
-  <si>
-    <t>玩家在折叠小凳上向着跷跷板翘起的一边跳，使另外一边如同升龙拳一般向上抬升。若成功击中敌人，将其击飞三格，反之使自身陷入0.5s的硬直时间</t>
+    <t>玩家冲刺触发</t>
+  </si>
+  <si>
+    <t>玩家在冲刺跳上跷跷板，使另外一边如同升龙拳一般向上抬升。若成功击中敌人，将其击飞三格，反之使自身陷入0.5s的硬直时间</t>
+  </si>
+  <si>
+    <t>icon/trap/volcanic_viper</t>
   </si>
   <si>
     <t>陷阱通过控制跷跷板的状态（哪一侧翘起）和在正确的位置折叠小凳布置</t>
@@ -471,9 +492,6 @@
   </si>
   <si>
     <t>道具名</t>
-  </si>
-  <si>
-    <t>击打系数</t>
   </si>
   <si>
     <t>射程</t>
@@ -1922,18 +1940,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="12" width="19" customWidth="1"/>
+    <col min="1" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="43.4166666666667" customWidth="1"/>
+    <col min="6" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="255.583333333333" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="25.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:12">
+    <row r="1" ht="13" customHeight="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1970,22 +1993,25 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:11">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:12">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
         <v>3</v>
@@ -2000,27 +2026,30 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6">
         <v>5</v>
@@ -2035,27 +2064,30 @@
         <v>-1</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
@@ -2070,30 +2102,33 @@
         <v>-2</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:11">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" customHeight="1" spans="1:12">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
@@ -2108,27 +2143,30 @@
         <v>-1</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -2143,30 +2181,33 @@
         <v>-2</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:10">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1" spans="1:12">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
@@ -2181,24 +2222,27 @@
         <v>-1</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" customHeight="1" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" customHeight="1" spans="1:12">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6">
         <v>3</v>
@@ -2213,24 +2257,27 @@
         <v>-1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1" spans="1:12">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F9" s="6">
         <v>-1</v>
@@ -2245,10 +2292,13 @@
         <v>-1</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="M9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="6:7">
@@ -2306,93 +2356,93 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2417,72 +2467,72 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2507,75 +2557,75 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2600,33 +2650,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2634,47 +2684,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2699,26 +2749,26 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1"/>
@@ -2751,18 +2801,18 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1"/>
@@ -2796,352 +2846,352 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C18" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C19" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D19" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C21" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D21" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C22" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D22" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1" spans="1:4">
       <c r="A23" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1" spans="1:4">
       <c r="A24" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B24" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C24" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D24" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3172,136 +3222,136 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>0.4</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>0.4</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>0.3</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>0.6</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3309,7 +3359,7 @@
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3374,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3348,13 +3398,13 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -3362,13 +3412,13 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3376,13 +3426,13 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -3390,13 +3440,13 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3404,13 +3454,13 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -3418,13 +3468,13 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -3432,22 +3482,22 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3480,55 +3530,55 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3561,90 +3611,90 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3669,21 +3719,21 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3691,10 +3741,10 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3702,10 +3752,10 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3713,10 +3763,10 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3724,10 +3774,10 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -3735,10 +3785,10 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3746,10 +3796,10 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3757,10 +3807,10 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3768,10 +3818,10 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3800,13 +3850,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -3814,10 +3864,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
@@ -3887,13 +3937,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -3901,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
@@ -3912,10 +3962,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
@@ -3923,10 +3973,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
@@ -3934,10 +3984,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
@@ -3945,10 +3995,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:3">
@@ -3956,10 +4006,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:3">
@@ -3967,10 +4017,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
@@ -3978,10 +4028,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
@@ -3989,10 +4039,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
@@ -4000,10 +4050,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4015,79 +4065,76 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:4">
+    <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2"/>
     </row>

--- a/Assets/Plugins/ExcelImporter/Example/Excels/小鬼当家配置表.xlsx
+++ b/Assets/Plugins/ExcelImporter/Example/Excels/小鬼当家配置表.xlsx
@@ -149,7 +149,7 @@
     <t>泡泡喷发装置</t>
   </si>
   <si>
-    <t>混合</t>
+    <t>定时|主动</t>
   </si>
   <si>
     <t>一段时间后，玩家与陷阱附着的家具互动触发</t>
@@ -1942,8 +1942,8 @@
   <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Plugins/ExcelImporter/Example/Excels/小鬼当家配置表.xlsx
+++ b/Assets/Plugins/ExcelImporter/Example/Excels/小鬼当家配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="23040" windowHeight="10500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="陷阱" sheetId="2" r:id="rId1"/>
@@ -1942,11 +1942,11 @@
   <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="43.4166666666667" customWidth="1"/>
@@ -2345,11 +2345,11 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="7" width="19" customWidth="1"/>
   </cols>
@@ -2460,7 +2460,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="19" customWidth="1"/>
   </cols>
@@ -2550,7 +2550,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
   </cols>
@@ -2643,7 +2643,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="5" width="19" customWidth="1"/>
   </cols>
@@ -2742,7 +2742,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
   </cols>
@@ -2794,7 +2794,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
   </cols>
@@ -2839,7 +2839,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="6" width="19" customWidth="1"/>
   </cols>
@@ -3209,7 +3209,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="6" width="19" customWidth="1"/>
   </cols>
@@ -3377,7 +3377,7 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="19" customWidth="1"/>
   </cols>
@@ -3515,7 +3515,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
   </cols>
@@ -3596,7 +3596,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
   </cols>
@@ -3712,7 +3712,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
   </cols>
@@ -3843,7 +3843,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
   </cols>
@@ -3930,7 +3930,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
   </cols>
@@ -4071,7 +4071,7 @@
       <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="5" width="19" customWidth="1"/>
   </cols>
